--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_19_10.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_19_10.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1055589.4616235</v>
+        <v>-1058138.118809521</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>79.7647007448299</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
@@ -677,7 +677,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>29.38892166358583</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -817,25 +817,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>100.3565319570702</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>118.9901385224116</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -899,22 +899,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>200.1627776403526</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>198.7866240250354</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,13 +944,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247721</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1051,28 +1051,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,16 +1099,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>145.9925532432125</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1117,10 +1117,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>92.7224286874786</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1145,10 +1145,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>352.0975552298093</v>
+        <v>395.7101476582277</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1187,7 +1187,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1303,10 +1303,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -1345,16 +1345,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>114.5642564752903</v>
       </c>
       <c r="X10" t="n">
-        <v>212.6180720598446</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560529</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1534,19 +1534,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>71.05846343488149</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>200.2162519639171</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1613,7 +1613,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1673,7 +1673,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="15">
@@ -1765,19 +1765,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>146.6281161973733</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465697</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>22.54881804343128</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -2005,7 +2005,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2017,7 +2017,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>107.4021082756234</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>57.65182679923893</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2242,22 +2242,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179805</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>167.9698660663631</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2479,13 +2479,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>9.146142788179651</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2530,7 +2530,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>7.069540131684421</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2612,7 +2612,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2621,7 +2621,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2713,22 +2713,22 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>122.6028762599958</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>56.04917322725547</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2798,7 +2798,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2947,19 +2947,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>97.75513637220202</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2968,7 +2968,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,7 +2998,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3007,7 +3007,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>194.9085394018857</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3032,7 +3032,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3184,25 +3184,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>164.260746886978</v>
+        <v>164.2607468869781</v>
       </c>
       <c r="C34" t="n">
-        <v>151.6755878036685</v>
+        <v>151.6755878036686</v>
       </c>
       <c r="D34" t="n">
-        <v>133.044239723253</v>
+        <v>120.8538922850741</v>
       </c>
       <c r="E34" t="n">
-        <v>113.5460467367267</v>
+        <v>130.86272935161</v>
       </c>
       <c r="F34" t="n">
-        <v>129.8498147279719</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>149.9529049973095</v>
+        <v>149.9529049973096</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>124.7234795512647</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>50.80401341516236</v>
+        <v>50.8040134151625</v>
       </c>
       <c r="S34" t="n">
-        <v>165.4550527066853</v>
+        <v>165.4550527066854</v>
       </c>
       <c r="T34" t="n">
-        <v>201.8342170323289</v>
+        <v>201.8342170323291</v>
       </c>
       <c r="U34" t="n">
-        <v>270.6132410942848</v>
+        <v>270.6132410942849</v>
       </c>
       <c r="V34" t="n">
-        <v>236.5664100288687</v>
+        <v>236.5664100288688</v>
       </c>
       <c r="W34" t="n">
-        <v>270.9517650416317</v>
+        <v>270.9517650416318</v>
       </c>
       <c r="X34" t="n">
-        <v>210.1384220940778</v>
+        <v>210.138422094078</v>
       </c>
       <c r="Y34" t="n">
-        <v>203.0134200571355</v>
+        <v>203.0134200571356</v>
       </c>
     </row>
     <row r="35">
@@ -3320,7 +3320,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3424,7 +3424,7 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D37" t="n">
         <v>124.3308255261727</v>
@@ -3433,16 +3433,16 @@
         <v>122.1493151545295</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H37" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652483</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808293</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
@@ -3487,7 +3487,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y37" t="n">
         <v>194.3000058600551</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3661,7 +3661,7 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D40" t="n">
         <v>124.3308255261727</v>
@@ -3670,16 +3670,16 @@
         <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541828</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652585</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808199</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
@@ -3724,7 +3724,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y40" t="n">
         <v>194.3000058600551</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3898,7 +3898,7 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D43" t="n">
         <v>124.3308255261727</v>
@@ -3907,7 +3907,7 @@
         <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G43" t="n">
         <v>141.2394908002292</v>
@@ -3916,7 +3916,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652585</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808198</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -3961,7 +3961,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y43" t="n">
         <v>194.3000058600551</v>
@@ -4135,10 +4135,10 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C46" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D46" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
         <v>122.1493151545295</v>
@@ -4147,13 +4147,13 @@
         <v>121.1364005308915</v>
       </c>
       <c r="G46" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808199</v>
+        <v>42.09059921808197</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4198,7 +4198,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X46" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y46" t="n">
         <v>194.3000058600551</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1892.184635123826</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="C2" t="n">
-        <v>1523.222118183415</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="D2" t="n">
-        <v>1164.956419576664</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
-        <v>779.1681669784198</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>779.1681669784198</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3295.920042151003</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3295.920042151003</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>3042.389565424839</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V2" t="n">
-        <v>3042.389565424839</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
-        <v>3042.389565424839</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X2" t="n">
-        <v>2668.92380716376</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y2" t="n">
-        <v>2278.784475187948</v>
+        <v>1698.50962791956</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064585</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228011</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031485</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X3" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>646.6939999491683</v>
+        <v>462.6853918125572</v>
       </c>
       <c r="C4" t="n">
-        <v>477.7578170212613</v>
+        <v>462.6853918125572</v>
       </c>
       <c r="D4" t="n">
-        <v>477.7578170212613</v>
+        <v>361.315157512487</v>
       </c>
       <c r="E4" t="n">
-        <v>477.7578170212613</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
@@ -4495,7 +4495,7 @@
         <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760402</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
@@ -4510,28 +4510,28 @@
         <v>1927.294548088492</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672846</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T4" t="n">
-        <v>1424.011591242372</v>
+        <v>1705.527932658018</v>
       </c>
       <c r="U4" t="n">
-        <v>1424.011591242372</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V4" t="n">
-        <v>1169.327103036485</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W4" t="n">
-        <v>1169.327103036485</v>
+        <v>872.3234075408143</v>
       </c>
       <c r="X4" t="n">
-        <v>1049.135043922938</v>
+        <v>644.3338566427969</v>
       </c>
       <c r="Y4" t="n">
-        <v>828.342464779408</v>
+        <v>644.3338566427969</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1480.516858765518</v>
+        <v>1844.338003964586</v>
       </c>
       <c r="C5" t="n">
-        <v>1111.554341825107</v>
+        <v>1475.375487024174</v>
       </c>
       <c r="D5" t="n">
-        <v>1111.554341825107</v>
+        <v>1117.109788417424</v>
       </c>
       <c r="E5" t="n">
-        <v>725.7660892268623</v>
+        <v>731.3215358191796</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>320.3356310295721</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>309.3035849149726</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
         <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.784676410102</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V5" t="n">
-        <v>2630.721789066532</v>
+        <v>2994.542934265599</v>
       </c>
       <c r="W5" t="n">
-        <v>2630.721789066532</v>
+        <v>2994.542934265599</v>
       </c>
       <c r="X5" t="n">
-        <v>2257.256030805452</v>
+        <v>2621.07717600452</v>
       </c>
       <c r="Y5" t="n">
-        <v>1867.11669882964</v>
+        <v>2230.937844028708</v>
       </c>
     </row>
     <row r="6">
@@ -4620,43 +4620,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387301</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
         <v>2096.912393410638</v>
@@ -4699,40 +4699,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>460.8443805240842</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="C7" t="n">
-        <v>460.8443805240842</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="D7" t="n">
-        <v>310.7277411117484</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E7" t="n">
-        <v>310.7277411117484</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F7" t="n">
-        <v>163.8377936138381</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G7" t="n">
-        <v>163.8377936138381</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H7" t="n">
         <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4744,31 +4744,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S7" t="n">
-        <v>1837.464090846021</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1615.697475415547</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U7" t="n">
-        <v>1326.59460854119</v>
+        <v>1498.310981174652</v>
       </c>
       <c r="V7" t="n">
-        <v>1071.910120335303</v>
+        <v>1243.626492968765</v>
       </c>
       <c r="W7" t="n">
-        <v>782.4929502983425</v>
+        <v>954.2093229318045</v>
       </c>
       <c r="X7" t="n">
-        <v>554.5033994003252</v>
+        <v>954.2093229318045</v>
       </c>
       <c r="Y7" t="n">
-        <v>460.8443805240842</v>
+        <v>954.2093229318045</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1881.708680670284</v>
+        <v>1628.17820394412</v>
       </c>
       <c r="C8" t="n">
-        <v>1512.746163729872</v>
+        <v>1259.215687003709</v>
       </c>
       <c r="D8" t="n">
-        <v>1154.480465123122</v>
+        <v>900.9499883969581</v>
       </c>
       <c r="E8" t="n">
-        <v>768.6922125248775</v>
+        <v>515.1617357987138</v>
       </c>
       <c r="F8" t="n">
-        <v>761.746711775674</v>
+        <v>508.2162350495104</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
@@ -4802,10 +4802,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810551</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4835,19 +4835,19 @@
         <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.605821609171</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V8" t="n">
-        <v>2994.5429342656</v>
+        <v>2741.012457539436</v>
       </c>
       <c r="W8" t="n">
-        <v>2641.774278995485</v>
+        <v>2388.243802269322</v>
       </c>
       <c r="X8" t="n">
-        <v>2268.308520734406</v>
+        <v>2014.778044008242</v>
       </c>
       <c r="Y8" t="n">
-        <v>2268.308520734406</v>
+        <v>2014.778044008242</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228006</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2153.285934409297</v>
+        <v>626.3436713194226</v>
       </c>
       <c r="C10" t="n">
-        <v>2153.285934409297</v>
+        <v>626.3436713194226</v>
       </c>
       <c r="D10" t="n">
-        <v>2003.169294996962</v>
+        <v>626.3436713194226</v>
       </c>
       <c r="E10" t="n">
-        <v>1855.256201414568</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="F10" t="n">
-        <v>1708.366253916658</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G10" t="n">
-        <v>1708.366253916658</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H10" t="n">
-        <v>1562.149067134516</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>1509.946022399797</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>2374.650049396718</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
-        <v>2716.058426102583</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O10" t="n">
-        <v>3015.388025022996</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P10" t="n">
-        <v>3247.995525456656</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>3133.919937435997</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T10" t="n">
-        <v>2912.153322005523</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U10" t="n">
-        <v>2912.153322005523</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V10" t="n">
-        <v>2657.468833799636</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W10" t="n">
-        <v>2368.051663762676</v>
+        <v>854.3332222174399</v>
       </c>
       <c r="X10" t="n">
-        <v>2153.285934409297</v>
+        <v>626.3436713194226</v>
       </c>
       <c r="Y10" t="n">
-        <v>2153.285934409297</v>
+        <v>626.3436713194226</v>
       </c>
     </row>
     <row r="11">
@@ -5036,19 +5036,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355937</v>
@@ -5118,22 +5118,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>2148.04349261611</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O12" t="n">
-        <v>2148.04349261611</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>950.7540666811335</v>
+        <v>849.3843576263195</v>
       </c>
       <c r="C13" t="n">
-        <v>781.8178837532266</v>
+        <v>680.4481746984126</v>
       </c>
       <c r="D13" t="n">
-        <v>631.7012443408908</v>
+        <v>530.3315352860768</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408908</v>
+        <v>382.4184417036836</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429805</v>
+        <v>235.5284942057733</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057733</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5200,10 +5200,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235164</v>
       </c>
       <c r="T13" t="n">
-        <v>2125.286319795768</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>2125.286319795768</v>
+        <v>1842.268145910715</v>
       </c>
       <c r="V13" t="n">
-        <v>1870.601831589881</v>
+        <v>1587.583657704828</v>
       </c>
       <c r="W13" t="n">
-        <v>1581.184661552921</v>
+        <v>1298.166487667867</v>
       </c>
       <c r="X13" t="n">
-        <v>1353.195110654903</v>
+        <v>1070.17693676985</v>
       </c>
       <c r="Y13" t="n">
-        <v>1132.402531511373</v>
+        <v>849.3843576263195</v>
       </c>
     </row>
     <row r="14">
@@ -5273,13 +5273,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>954.2476448606607</v>
+        <v>763.7541388327641</v>
       </c>
       <c r="C16" t="n">
-        <v>785.3114619327538</v>
+        <v>615.644930552589</v>
       </c>
       <c r="D16" t="n">
-        <v>635.194822520418</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E16" t="n">
-        <v>487.2817289380243</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F16" t="n">
-        <v>340.391781440114</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G16" t="n">
         <v>317.6151975578601</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T16" t="n">
-        <v>2197.062545487568</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U16" t="n">
-        <v>1907.987318831765</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V16" t="n">
-        <v>1653.302830625878</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W16" t="n">
-        <v>1363.885660588918</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X16" t="n">
-        <v>1135.8961096909</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y16" t="n">
-        <v>1135.8961096909</v>
+        <v>945.4026036630038</v>
       </c>
     </row>
     <row r="17">
@@ -5504,10 +5504,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
@@ -5552,10 +5552,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5589,28 +5589,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>866.4638174991042</v>
+        <v>983.3556038098232</v>
       </c>
       <c r="C19" t="n">
-        <v>697.5276345711973</v>
+        <v>814.4194208819164</v>
       </c>
       <c r="D19" t="n">
-        <v>697.5276345711973</v>
+        <v>664.3027814695806</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888043</v>
+        <v>516.3896878871875</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908941</v>
+        <v>369.4997403892772</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>202.3036411041571</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5674,10 +5674,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797742</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832662</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2321.683211348583</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T19" t="n">
-        <v>2102.081746371524</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U19" t="n">
-        <v>1813.006519715722</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V19" t="n">
-        <v>1558.322031509835</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W19" t="n">
-        <v>1268.904861472874</v>
+        <v>1613.78619868161</v>
       </c>
       <c r="X19" t="n">
-        <v>1268.904861472874</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y19" t="n">
-        <v>1048.112282329344</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
     <row r="20">
@@ -5741,31 +5741,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1058.183521551621</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1655.562009178173</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2283.159972732779</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>784.5811134804959</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>615.644930552589</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D22" t="n">
-        <v>465.5282911402533</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E22" t="n">
-        <v>317.6151975578601</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F22" t="n">
-        <v>317.6151975578601</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
         <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166296</v>
       </c>
       <c r="T22" t="n">
-        <v>2027.396014107403</v>
+        <v>2035.268256189237</v>
       </c>
       <c r="U22" t="n">
-        <v>1738.320787451601</v>
+        <v>1746.193029533435</v>
       </c>
       <c r="V22" t="n">
-        <v>1483.636299245714</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1194.219129208753</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>966.2295783107356</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>966.2295783107356</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5984,10 +5984,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075809</v>
@@ -5996,13 +5996,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>740.5562989961526</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1103.652278938886</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1731.250242493492</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,16 +6121,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1016.58045691144</v>
+        <v>580.899304487669</v>
       </c>
       <c r="C25" t="n">
-        <v>847.644273983533</v>
+        <v>411.9631215597622</v>
       </c>
       <c r="D25" t="n">
-        <v>697.5276345711973</v>
+        <v>411.9631215597622</v>
       </c>
       <c r="E25" t="n">
-        <v>549.6145409888042</v>
+        <v>411.9631215597622</v>
       </c>
       <c r="F25" t="n">
         <v>402.7245934908938</v>
@@ -6148,7 +6148,7 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
         <v>826.1405381797745</v>
@@ -6157,40 +6157,40 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1970.320130882545</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1715.635642676658</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>1426.218472639697</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>1198.22892174168</v>
+        <v>983.3403484614389</v>
       </c>
       <c r="Y25" t="n">
-        <v>1198.22892174168</v>
+        <v>762.5477693179088</v>
       </c>
     </row>
     <row r="26">
@@ -6221,22 +6221,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6260,13 +6260,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6306,25 +6306,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>372.4964262156764</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>867.8220324314351</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1465.200520057987</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2092.798483612594</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>762.5477693179088</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C28" t="n">
-        <v>762.5477693179088</v>
+        <v>526.5658826424042</v>
       </c>
       <c r="D28" t="n">
-        <v>612.431129905573</v>
+        <v>402.7245934908933</v>
       </c>
       <c r="E28" t="n">
-        <v>464.5180363231799</v>
+        <v>402.7245934908933</v>
       </c>
       <c r="F28" t="n">
-        <v>317.6280888252695</v>
+        <v>402.7245934908933</v>
       </c>
       <c r="G28" t="n">
-        <v>150.4319895401491</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6400,34 +6400,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q28" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614389</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.5477693179088</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6443,7 +6443,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
         <v>1204.759558406469</v>
@@ -6452,28 +6452,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6549,19 +6549,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1074.481071167373</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1702.079034721979</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3122.22696873374</v>
+        <v>571.6607764188009</v>
       </c>
       <c r="C31" t="n">
-        <v>3023.484406741617</v>
+        <v>402.724593490894</v>
       </c>
       <c r="D31" t="n">
-        <v>3023.484406741617</v>
+        <v>402.724593490894</v>
       </c>
       <c r="E31" t="n">
-        <v>2875.571313159223</v>
+        <v>402.724593490894</v>
       </c>
       <c r="F31" t="n">
-        <v>2728.681365661313</v>
+        <v>402.724593490894</v>
       </c>
       <c r="G31" t="n">
-        <v>2561.485266376193</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>4623.787448650995</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>4404.185983673937</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>4115.110757018135</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>3860.426268812248</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>3571.009098775287</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>3343.01954787727</v>
+        <v>974.1018203925707</v>
       </c>
       <c r="Y31" t="n">
-        <v>3122.22696873374</v>
+        <v>753.3092412490406</v>
       </c>
     </row>
     <row r="32">
@@ -6689,19 +6689,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>579.1554649516142</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M33" t="n">
-        <v>1176.533952578166</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N33" t="n">
-        <v>1804.131916132773</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>778.7344347539613</v>
+        <v>778.7344347539591</v>
       </c>
       <c r="C34" t="n">
-        <v>625.5267703058114</v>
+        <v>625.526770305809</v>
       </c>
       <c r="D34" t="n">
-        <v>491.1386493732326</v>
+        <v>503.4521316340171</v>
       </c>
       <c r="E34" t="n">
-        <v>376.4456728714885</v>
+        <v>371.2675565313807</v>
       </c>
       <c r="F34" t="n">
-        <v>245.2842438533351</v>
+        <v>371.2675565313807</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797189</v>
+        <v>219.799975726017</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>189.4682024403054</v>
+        <v>189.4682024403053</v>
       </c>
       <c r="K34" t="n">
-        <v>466.5729859278537</v>
+        <v>466.5729859278534</v>
       </c>
       <c r="L34" t="n">
-        <v>872.3871010658036</v>
+        <v>872.3871010658031</v>
       </c>
       <c r="M34" t="n">
-        <v>1309.812324758848</v>
+        <v>1309.812324758847</v>
       </c>
       <c r="N34" t="n">
-        <v>1742.637717380866</v>
+        <v>1742.637717380865</v>
       </c>
       <c r="O34" t="n">
-        <v>2127.582519051861</v>
+        <v>2127.58251905186</v>
       </c>
       <c r="P34" t="n">
-        <v>2435.673495587429</v>
+        <v>2435.673495587428</v>
       </c>
       <c r="Q34" t="n">
-        <v>2570.287251276338</v>
+        <v>2570.287251276337</v>
       </c>
       <c r="R34" t="n">
-        <v>2518.970066008498</v>
+        <v>2518.970066008496</v>
       </c>
       <c r="S34" t="n">
-        <v>2351.843750143159</v>
+        <v>2351.843750143158</v>
       </c>
       <c r="T34" t="n">
-        <v>2147.970803645857</v>
+        <v>2147.970803645856</v>
       </c>
       <c r="U34" t="n">
-        <v>1874.624095469812</v>
+        <v>1874.62409546981</v>
       </c>
       <c r="V34" t="n">
-        <v>1635.668125743682</v>
+        <v>1635.66812574368</v>
       </c>
       <c r="W34" t="n">
-        <v>1361.979474186478</v>
+        <v>1361.979474186476</v>
       </c>
       <c r="X34" t="n">
-        <v>1149.718441768217</v>
+        <v>1149.718441768216</v>
       </c>
       <c r="Y34" t="n">
-        <v>944.6543811044442</v>
+        <v>944.6543811044421</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6932,25 +6932,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6968,19 +6968,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7017,25 +7017,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>740.5562989961525</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,31 +7069,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150019</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942656</v>
+        <v>533.581456494265</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580109</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345477</v>
+        <v>268.555303634547</v>
       </c>
       <c r="H37" t="n">
-        <v>151.373419438402</v>
+        <v>151.373419438401</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K37" t="n">
         <v>483.8255460380728</v>
@@ -7120,13 +7120,13 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T37" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V37" t="n">
         <v>1748.685508594055</v>
@@ -7135,7 +7135,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y37" t="n">
         <v>1084.076049400516</v>
@@ -7163,28 +7163,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7266,13 +7266,13 @@
         <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2299.457522348532</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.957531531932</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656814</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150019</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E40" t="n">
-        <v>533.581456494265</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580109</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345463</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
@@ -7330,13 +7330,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380727</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311323</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7354,28 +7354,28 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="41">
@@ -7400,19 +7400,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7491,25 +7491,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>245.2306927803937</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>842.6091804069456</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1470.207143961552</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,34 +7543,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319319</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656811</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150016</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942648</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580107</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345468</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
         <v>898.2659412311323</v>
@@ -7588,31 +7588,31 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S43" t="n">
         <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V43" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="44">
@@ -7634,7 +7634,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7643,7 +7643,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
         <v>378.192580311172</v>
@@ -7728,25 +7728,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>372.4964262156764</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>867.8220324314351</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1465.200520057987</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2092.798483612594</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7801,7 +7801,7 @@
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
         <v>198.094482495415</v>
@@ -7819,19 +7819,19 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q46" t="n">
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8289,7 +8289,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>2.025046796916286e-13</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22544,19 +22544,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>285.5081910261777</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -22565,7 +22565,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292599</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,25 +22595,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>79.79884012459001</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22705,25 +22705,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>48.25894106114214</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22750,28 +22750,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>106.7195168666255</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23422,19 +23422,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>146.3469868924068</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892464</v>
+        <v>85.96822242532701</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23561,7 +23561,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="15">
@@ -23653,7 +23653,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>20.61870490125455</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23662,10 +23662,10 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>142.9753202488376</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23893,7 +23893,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23905,7 +23905,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>32.89260457060053</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>123.3744592024057</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>57.22910392194188</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>49.43558426092514</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24367,13 +24367,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>136.2749052347516</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24418,7 +24418,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>279.1149342575597</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24601,22 +24601,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>26.01259675821653</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>84.24553961896842</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24835,19 +24835,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>69.49168472642582</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24895,7 +24895,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25078,22 +25078,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>12.1903474381791</v>
       </c>
       <c r="E34" t="n">
-        <v>17.31668261488316</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>129.849814727972</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>124.7234795512646</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>65.69460302360621</v>
+        <v>65.69460302360635</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25330,7 +25330,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>1.012949724099599e-12</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>-7.835954235490113e-13</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25564,7 +25564,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>1.350599632132798e-12</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1222308.834870243</v>
+        <v>1222308.834870244</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1222308.834870244</v>
+        <v>1222308.834870243</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1222308.834870244</v>
+        <v>1222308.834870243</v>
       </c>
     </row>
     <row r="12">
@@ -26320,7 +26320,7 @@
         <v>205260.4424660708</v>
       </c>
       <c r="E2" t="n">
-        <v>201786.6499225015</v>
+        <v>201786.6499225016</v>
       </c>
       <c r="F2" t="n">
         <v>201786.6499225016</v>
@@ -26332,16 +26332,16 @@
         <v>201786.6499225016</v>
       </c>
       <c r="I2" t="n">
+        <v>201786.6499225016</v>
+      </c>
+      <c r="J2" t="n">
+        <v>201786.6499225016</v>
+      </c>
+      <c r="K2" t="n">
         <v>201786.6499225015</v>
       </c>
-      <c r="J2" t="n">
-        <v>201786.6499225015</v>
-      </c>
-      <c r="K2" t="n">
-        <v>201786.6499225016</v>
-      </c>
       <c r="L2" t="n">
-        <v>204014.0338749324</v>
+        <v>204014.0338749323</v>
       </c>
       <c r="M2" t="n">
         <v>205260.4424660709</v>
@@ -26350,7 +26350,7 @@
         <v>205260.4424660709</v>
       </c>
       <c r="O2" t="n">
-        <v>205260.442466071</v>
+        <v>205260.4424660709</v>
       </c>
       <c r="P2" t="n">
         <v>205260.4424660709</v>
@@ -26363,13 +26363,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>2.07046923605958e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
         <v>325412.4618073552</v>
@@ -26381,22 +26381,22 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972773</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>12456.98663596746</v>
+        <v>12456.98663596735</v>
       </c>
       <c r="M3" t="n">
-        <v>92025.75929317613</v>
+        <v>92025.75929317623</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>12210.17896214073</v>
+        <v>12210.17896214071</v>
       </c>
       <c r="C4" t="n">
-        <v>91573.95495316942</v>
+        <v>91573.95495316945</v>
       </c>
       <c r="D4" t="n">
-        <v>91573.95495316942</v>
+        <v>91573.95495316944</v>
       </c>
       <c r="E4" t="n">
         <v>12386.92018181813</v>
@@ -26433,31 +26433,31 @@
         <v>12386.92018181813</v>
       </c>
       <c r="H4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181814</v>
       </c>
       <c r="I4" t="n">
         <v>12386.92018181813</v>
       </c>
       <c r="J4" t="n">
-        <v>12386.92018181815</v>
+        <v>12386.92018181814</v>
       </c>
       <c r="K4" t="n">
-        <v>12386.92018181815</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="L4" t="n">
-        <v>17510.63193648131</v>
+        <v>17510.63193648124</v>
       </c>
       <c r="M4" t="n">
-        <v>20377.77944491159</v>
+        <v>20377.7794449116</v>
       </c>
       <c r="N4" t="n">
-        <v>20377.77944491159</v>
+        <v>20377.7794449116</v>
       </c>
       <c r="O4" t="n">
         <v>20377.77944491159</v>
       </c>
       <c r="P4" t="n">
-        <v>20377.77944491159</v>
+        <v>20377.7794449116</v>
       </c>
     </row>
     <row r="5">
@@ -26519,43 +26519,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1278390.315765666</v>
+        <v>-1278737.934695472</v>
       </c>
       <c r="C6" t="n">
+        <v>5752.546951508295</v>
+      </c>
+      <c r="D6" t="n">
         <v>5752.546951507858</v>
       </c>
-      <c r="D6" t="n">
-        <v>5752.546951508077</v>
-      </c>
       <c r="E6" t="n">
-        <v>-237135.2618905789</v>
+        <v>-237169.9998160145</v>
       </c>
       <c r="F6" t="n">
-        <v>88277.19991677631</v>
+        <v>88242.46199134062</v>
       </c>
       <c r="G6" t="n">
-        <v>88277.19991677628</v>
+        <v>88242.46199134053</v>
       </c>
       <c r="H6" t="n">
-        <v>88277.19991677614</v>
+        <v>88242.46199134062</v>
       </c>
       <c r="I6" t="n">
-        <v>88277.19991677628</v>
+        <v>88242.46199134065</v>
       </c>
       <c r="J6" t="n">
-        <v>-129254.002480501</v>
+        <v>-129288.7404059369</v>
       </c>
       <c r="K6" t="n">
-        <v>88277.19991677628</v>
+        <v>88242.46199134059</v>
       </c>
       <c r="L6" t="n">
-        <v>71614.82746670258</v>
+        <v>71602.36338079126</v>
       </c>
       <c r="M6" t="n">
-        <v>-10307.21212593224</v>
+        <v>-10307.2121259323</v>
       </c>
       <c r="N6" t="n">
-        <v>81718.5471672439</v>
+        <v>81718.54716724393</v>
       </c>
       <c r="O6" t="n">
         <v>81718.54716724396</v>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>15.57123329495933</v>
+        <v>15.57123329495919</v>
       </c>
       <c r="M2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="N2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="O2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="3">
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022926</v>
@@ -26935,10 +26935,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>15.57123329495933</v>
+        <v>15.57123329495919</v>
       </c>
       <c r="M2" t="n">
-        <v>8.713414197080368</v>
+        <v>8.713414197080494</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26960,10 +26960,10 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>278.1987997483754</v>
@@ -26975,7 +26975,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27619,19 +27619,19 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>206.7132681013588</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>95.82114036228509</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,13 +27664,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27771,25 +27771,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27822,13 +27822,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>140.2192849624004</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27837,10 +27837,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>125.8622246646162</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27865,10 +27865,10 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>58.82417042364415</v>
+        <v>15.21157799522575</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27907,7 +27907,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -28014,7 +28014,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28023,10 +28023,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28065,16 +28065,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>171.9587418613007</v>
       </c>
       <c r="X10" t="n">
-        <v>13.0915833291925</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28156,7 +28156,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>6.621922440871659e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28302,7 +28302,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>-2.1962709428891e-12</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -28333,7 +28333,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>1.70530256582424e-13</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -28798,7 +28798,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -29332,7 +29332,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -29341,7 +29341,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -29518,7 +29518,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -29752,7 +29752,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>15.57123329495933</v>
+        <v>15.57123329495919</v>
       </c>
       <c r="C34" t="n">
-        <v>15.57123329495933</v>
+        <v>15.57123329495919</v>
       </c>
       <c r="D34" t="n">
-        <v>15.57123329495933</v>
+        <v>15.57123329495919</v>
       </c>
       <c r="E34" t="n">
-        <v>15.57123329495933</v>
+        <v>15.57123329495919</v>
       </c>
       <c r="F34" t="n">
-        <v>15.57123329495933</v>
+        <v>15.57123329495919</v>
       </c>
       <c r="G34" t="n">
-        <v>15.57123329495933</v>
+        <v>15.57123329495919</v>
       </c>
       <c r="H34" t="n">
-        <v>15.57123329495933</v>
+        <v>15.57123329495919</v>
       </c>
       <c r="I34" t="n">
-        <v>15.57123329495933</v>
+        <v>15.57123329495919</v>
       </c>
       <c r="J34" t="n">
-        <v>15.57123329495933</v>
+        <v>15.57123329495919</v>
       </c>
       <c r="K34" t="n">
-        <v>15.57123329495933</v>
+        <v>15.57123329495919</v>
       </c>
       <c r="L34" t="n">
-        <v>15.57123329495933</v>
+        <v>15.57123329495919</v>
       </c>
       <c r="M34" t="n">
-        <v>15.57123329495933</v>
+        <v>15.57123329495919</v>
       </c>
       <c r="N34" t="n">
-        <v>15.57123329495933</v>
+        <v>15.57123329495919</v>
       </c>
       <c r="O34" t="n">
-        <v>15.57123329495933</v>
+        <v>15.57123329495919</v>
       </c>
       <c r="P34" t="n">
-        <v>15.57123329495933</v>
+        <v>15.57123329495919</v>
       </c>
       <c r="Q34" t="n">
-        <v>15.57123329495933</v>
+        <v>15.57123329495919</v>
       </c>
       <c r="R34" t="n">
-        <v>15.57123329495933</v>
+        <v>15.57123329495919</v>
       </c>
       <c r="S34" t="n">
-        <v>15.57123329495933</v>
+        <v>15.57123329495919</v>
       </c>
       <c r="T34" t="n">
-        <v>15.57123329495933</v>
+        <v>15.57123329495919</v>
       </c>
       <c r="U34" t="n">
-        <v>15.57123329495933</v>
+        <v>15.57123329495919</v>
       </c>
       <c r="V34" t="n">
-        <v>15.57123329495933</v>
+        <v>15.57123329495919</v>
       </c>
       <c r="W34" t="n">
-        <v>15.57123329495933</v>
+        <v>15.57123329495919</v>
       </c>
       <c r="X34" t="n">
-        <v>15.57123329495933</v>
+        <v>15.57123329495919</v>
       </c>
       <c r="Y34" t="n">
-        <v>15.57123329495933</v>
+        <v>15.57123329495919</v>
       </c>
     </row>
     <row r="35">
@@ -30040,7 +30040,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="C37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="D37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="E37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="F37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="G37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="H37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="I37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="J37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="K37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="L37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="M37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="N37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="O37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="P37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="R37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="S37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="T37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="U37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="V37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="W37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="X37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
     </row>
     <row r="38">
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="C40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="D40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="E40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="F40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="G40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="H40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="I40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="J40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="K40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="L40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="M40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="N40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="O40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="P40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="R40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="S40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="T40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="U40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="V40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="W40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="X40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
   </sheetData>
@@ -31039,43 +31039,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31124,40 +31124,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,13 +31197,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31212,16 +31212,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31230,16 +31230,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,43 +31276,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31361,40 +31361,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,13 +31434,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31449,16 +31449,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31467,16 +31467,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31838,7 +31838,7 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
@@ -31853,10 +31853,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P12" t="n">
-        <v>543.0832917018711</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -32309,31 +32309,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>270.9486956727256</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32540,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32552,37 +32552,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>622.4211036182644</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175661</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32777,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32789,37 +32789,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>508.8976500257889</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33026,7 +33026,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>266.392684868584</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33038,16 +33038,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33269,22 +33269,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>301.6445156724565</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33494,16 +33494,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33512,16 +33512,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>198.5607970756955</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33676,7 +33676,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
         <v>345.4516222043725</v>
@@ -33737,28 +33737,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>704.1404939038099</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33986,16 +33986,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>353.130074847795</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34211,10 +34211,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34223,16 +34223,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>535.8585467435948</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34448,7 +34448,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>266.392684868584</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34460,16 +34460,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,10 +34854,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
         <v>319.7573721701981</v>
@@ -34869,13 +34869,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,10 +35091,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35106,13 +35106,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
@@ -35501,10 +35501,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P12" t="n">
-        <v>409.1088842875408</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35957,31 +35957,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>128.8146617507074</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36203,25 +36203,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>483.8667238383903</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902934</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>366.7636161037706</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36674,7 +36674,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>128.551245894225</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36686,16 +36686,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36917,22 +36917,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>159.048271228012</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37142,16 +37142,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37160,16 +37160,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>55.96455263125101</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>96.61771655791269</v>
+        <v>96.61771655791254</v>
       </c>
       <c r="K34" t="n">
-        <v>279.9038217045942</v>
+        <v>279.9038217045941</v>
       </c>
       <c r="L34" t="n">
-        <v>409.9132476140907</v>
+        <v>409.9132476140906</v>
       </c>
       <c r="M34" t="n">
-        <v>441.8436602960044</v>
+        <v>441.8436602960043</v>
       </c>
       <c r="N34" t="n">
-        <v>437.1973662848667</v>
+        <v>437.1973662848666</v>
       </c>
       <c r="O34" t="n">
-        <v>388.8331330010047</v>
+        <v>388.8331330010046</v>
       </c>
       <c r="P34" t="n">
-        <v>311.2030066015843</v>
+        <v>311.2030066015841</v>
       </c>
       <c r="Q34" t="n">
-        <v>135.9734905948577</v>
+        <v>135.9734905948575</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37324,7 +37324,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902404</v>
@@ -37385,28 +37385,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>572.7987818204766</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K37" t="n">
         <v>288.6172359016746</v>
@@ -37479,7 +37479,7 @@
         <v>397.5465471980851</v>
       </c>
       <c r="P37" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986646</v>
       </c>
       <c r="Q37" t="n">
         <v>144.686904791938</v>
@@ -37634,16 +37634,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>219.1556674334648</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K40" t="n">
         <v>288.6172359016746</v>
@@ -37716,7 +37716,7 @@
         <v>397.5465471980851</v>
       </c>
       <c r="P40" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986646</v>
       </c>
       <c r="Q40" t="n">
         <v>144.686904791938</v>
@@ -37859,10 +37859,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37871,16 +37871,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>393.2623022991504</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K43" t="n">
         <v>288.6172359016746</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38096,7 +38096,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>128.551245894225</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38108,16 +38108,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38193,7 +38193,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
